--- a/docs/專題簡報國小乙組決賽名冊.xlsx
+++ b/docs/專題簡報國小乙組決賽名冊.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="171">
   <si>
     <t>序</t>
   </si>
@@ -48,241 +48,238 @@
     <t>專題簡報國小乙組</t>
   </si>
   <si>
+    <t>大甲區東明國小</t>
+  </si>
+  <si>
+    <t>彭翊妘</t>
+  </si>
+  <si>
+    <t>蔡佩容</t>
+  </si>
+  <si>
+    <t>陳加弘</t>
+  </si>
+  <si>
+    <t>sm26et6</t>
+  </si>
+  <si>
+    <t>smy80c8</t>
+  </si>
+  <si>
+    <t>大甲區華龍國小</t>
+  </si>
+  <si>
+    <t>詹涵妤</t>
+  </si>
+  <si>
+    <t>郭家芸</t>
+  </si>
+  <si>
+    <t>李宗欣</t>
+  </si>
+  <si>
+    <t>rs84jk8</t>
+  </si>
+  <si>
+    <t>n71k7</t>
+  </si>
+  <si>
     <t>大安區大安國小</t>
   </si>
   <si>
-    <t>王心保</t>
-  </si>
-  <si>
-    <t>吳則霖</t>
+    <t>陳右馨</t>
+  </si>
+  <si>
+    <t>張聿妡</t>
   </si>
   <si>
     <t>吳慧菁</t>
   </si>
   <si>
-    <t>my59jk6</t>
-  </si>
-  <si>
-    <t>bj20sm8</t>
-  </si>
-  <si>
-    <t>大肚區永順國小</t>
-  </si>
-  <si>
-    <t>趙芷微</t>
-  </si>
-  <si>
-    <t>賴建安</t>
-  </si>
-  <si>
-    <t>myg72w8</t>
-  </si>
-  <si>
-    <t>bj95dx9</t>
+    <t>et59sm1</t>
+  </si>
+  <si>
+    <t>hpe33yg3</t>
   </si>
   <si>
     <t>大肚區瑞井國小</t>
   </si>
   <si>
-    <t>鄭旻芸</t>
-  </si>
-  <si>
     <t>羅文晴</t>
   </si>
   <si>
+    <t>郭庭嫣</t>
+  </si>
+  <si>
     <t>游美玲</t>
   </si>
   <si>
-    <t>kf4a8</t>
-  </si>
-  <si>
-    <t>rs50w9</t>
-  </si>
-  <si>
-    <t>林育貞</t>
-  </si>
-  <si>
-    <t>郭庭毓　　</t>
-  </si>
-  <si>
-    <t>bjk11jk7</t>
-  </si>
-  <si>
-    <t>ygw57jk4</t>
-  </si>
-  <si>
-    <t>太平區長億國小</t>
-  </si>
-  <si>
-    <t>林芊妙</t>
-  </si>
-  <si>
-    <t>顏苡薰</t>
-  </si>
-  <si>
-    <t>謝東諭</t>
-  </si>
-  <si>
-    <t>xbj68j6</t>
-  </si>
-  <si>
-    <t>p17f4</t>
-  </si>
-  <si>
-    <t>北屯區明道普霖斯頓小學</t>
-  </si>
-  <si>
-    <t>鄧瑀婕</t>
-  </si>
-  <si>
-    <t>劉蕙寧</t>
-  </si>
-  <si>
-    <t>林郁璇</t>
-  </si>
-  <si>
-    <t>sm40cd1</t>
-  </si>
-  <si>
-    <t>j84pe5</t>
-  </si>
-  <si>
-    <t>北區育仁小學</t>
-  </si>
-  <si>
-    <t>陳庭琪</t>
-  </si>
-  <si>
-    <t>王沛媛</t>
-  </si>
-  <si>
-    <t>盧書錦</t>
-  </si>
-  <si>
-    <t>dx73d3</t>
-  </si>
-  <si>
-    <t>pe39gw7</t>
-  </si>
-  <si>
-    <t>陳鳳婷</t>
-  </si>
-  <si>
-    <t>楊佳瑜</t>
-  </si>
-  <si>
-    <t>pe26wh2</t>
-  </si>
-  <si>
-    <t>tv59e9</t>
-  </si>
-  <si>
-    <t>外埔區外埔國小</t>
-  </si>
-  <si>
-    <t>林香妤</t>
-  </si>
-  <si>
-    <t>陳文鴻</t>
-  </si>
-  <si>
-    <t>v15bj5</t>
-  </si>
-  <si>
-    <t>tv47tv2</t>
-  </si>
-  <si>
-    <t>羅文妤</t>
-  </si>
-  <si>
-    <t>陳雅玲</t>
-  </si>
-  <si>
-    <t>x83x3</t>
-  </si>
-  <si>
-    <t>w52h4</t>
+    <t>yg2e8</t>
+  </si>
+  <si>
+    <t>f27r6</t>
+  </si>
+  <si>
+    <t>大里區草湖國小</t>
+  </si>
+  <si>
+    <t>湯夢恬</t>
+  </si>
+  <si>
+    <t>黃畇棋</t>
+  </si>
+  <si>
+    <t>游淑雅</t>
+  </si>
+  <si>
+    <t>fr77kf1</t>
+  </si>
+  <si>
+    <t>g58d8</t>
+  </si>
+  <si>
+    <t>大雅區汝鎏國小</t>
+  </si>
+  <si>
+    <t>劉映均</t>
+  </si>
+  <si>
+    <t>賴文惠</t>
+  </si>
+  <si>
+    <t>c88e7</t>
+  </si>
+  <si>
+    <t>j64t1</t>
+  </si>
+  <si>
+    <t>大雅區陽明國小</t>
+  </si>
+  <si>
+    <t>吳駿淮</t>
+  </si>
+  <si>
+    <t>戴偉誌</t>
+  </si>
+  <si>
+    <t>蔡秉昆</t>
+  </si>
+  <si>
+    <t>jk16et2</t>
+  </si>
+  <si>
+    <t>c25n6</t>
   </si>
   <si>
     <t>后里區七星國小</t>
   </si>
   <si>
-    <t>張少宥</t>
+    <t>李葉婷</t>
+  </si>
+  <si>
+    <t>張韶軒</t>
   </si>
   <si>
     <t>王女衣人</t>
   </si>
   <si>
-    <t>g13jk8</t>
-  </si>
-  <si>
-    <t>dxb38e9</t>
+    <t>xb98d7</t>
+  </si>
+  <si>
+    <t>sm93c5</t>
+  </si>
+  <si>
+    <t>廖蓉瑾</t>
+  </si>
+  <si>
+    <t>李品蓁</t>
+  </si>
+  <si>
+    <t>pe32pe6</t>
+  </si>
+  <si>
+    <t>frs66h8</t>
   </si>
   <si>
     <t>后里區月眉國小</t>
   </si>
   <si>
+    <t>張婕瑩</t>
+  </si>
+  <si>
     <t>鍾博宇</t>
   </si>
   <si>
-    <t>張婕瑩</t>
-  </si>
-  <si>
     <t>趙姿婷</t>
   </si>
   <si>
-    <t>kf30m5</t>
-  </si>
-  <si>
-    <t>bj70wh6</t>
+    <t>dxb86yg7</t>
+  </si>
+  <si>
+    <t>t61a6</t>
+  </si>
+  <si>
+    <t>西屯區大仁國小</t>
+  </si>
+  <si>
+    <t>林義承</t>
+  </si>
+  <si>
+    <t>林璟諺</t>
+  </si>
+  <si>
+    <t>蔡宛玲</t>
+  </si>
+  <si>
+    <t>etv63m5</t>
+  </si>
+  <si>
+    <t>t32sm2</t>
   </si>
   <si>
     <t>西屯區何厝國小</t>
   </si>
   <si>
-    <t>沈育立</t>
-  </si>
-  <si>
-    <t>簡霆凱</t>
+    <t>張誌祐</t>
+  </si>
+  <si>
+    <t>詹於潔</t>
   </si>
   <si>
     <t>陳勝裕</t>
   </si>
   <si>
-    <t>wh67a1</t>
-  </si>
-  <si>
-    <t>rs23gw1</t>
-  </si>
-  <si>
-    <t>西屯區泰安國小</t>
-  </si>
-  <si>
-    <t>黃芊華</t>
-  </si>
-  <si>
-    <t>蔡侑岑</t>
-  </si>
-  <si>
-    <t>吳家瑋</t>
-  </si>
-  <si>
-    <t>sm32j9</t>
-  </si>
-  <si>
-    <t>tv15kf6</t>
-  </si>
-  <si>
-    <t>廖忻培</t>
-  </si>
-  <si>
-    <t>張尹涵</t>
-  </si>
-  <si>
-    <t>etv5v8</t>
-  </si>
-  <si>
-    <t>f73m7</t>
+    <t>k59yg5</t>
+  </si>
+  <si>
+    <t>b4cd4</t>
+  </si>
+  <si>
+    <t>胡鈞越</t>
+  </si>
+  <si>
+    <t>沈宥廷</t>
+  </si>
+  <si>
+    <t>m71hp8</t>
+  </si>
+  <si>
+    <t>ygw32k8</t>
+  </si>
+  <si>
+    <t>西屯區重慶國小</t>
+  </si>
+  <si>
+    <t>張琪芙</t>
+  </si>
+  <si>
+    <t>歐陽國和</t>
+  </si>
+  <si>
+    <t>rs22f7</t>
+  </si>
+  <si>
+    <t>s92my2</t>
   </si>
   <si>
     <t>西區忠信國小</t>
@@ -291,202 +288,250 @@
     <t>廖美淇</t>
   </si>
   <si>
+    <t>楊蕥妮</t>
+  </si>
+  <si>
+    <t>傅光鴻</t>
+  </si>
+  <si>
+    <t>yg96w1</t>
+  </si>
+  <si>
+    <t>f90n7</t>
+  </si>
+  <si>
     <t>王思淇</t>
   </si>
   <si>
-    <t>傅光鴻</t>
-  </si>
-  <si>
-    <t>whp60gw2</t>
-  </si>
-  <si>
-    <t>bjk21nc7</t>
+    <t>陳凱琳</t>
+  </si>
+  <si>
+    <t>dx34gw9</t>
+  </si>
+  <si>
+    <t>fr95c8</t>
   </si>
   <si>
     <t>沙鹿區公明國小</t>
   </si>
   <si>
-    <t>張淯翔</t>
-  </si>
-  <si>
-    <t>黃昱菁</t>
-  </si>
-  <si>
-    <t>王希文</t>
-  </si>
-  <si>
-    <t>f25wh2</t>
-  </si>
-  <si>
-    <t>myg79rs8</t>
+    <t>蕭惠真</t>
+  </si>
+  <si>
+    <t>周俋汝</t>
+  </si>
+  <si>
+    <t>余智萱</t>
+  </si>
+  <si>
+    <t>pet7t4</t>
+  </si>
+  <si>
+    <t>wh2kf7</t>
   </si>
   <si>
     <t>沙鹿區文光國小</t>
   </si>
   <si>
-    <t>吳翊甄</t>
-  </si>
-  <si>
-    <t>王紋綺</t>
+    <t>何秉憲</t>
+  </si>
+  <si>
+    <t>何蓁媺</t>
   </si>
   <si>
     <t>陳志豪</t>
   </si>
   <si>
-    <t>sm37g8</t>
-  </si>
-  <si>
-    <t>gw16fr5</t>
-  </si>
-  <si>
-    <t>何秉憲</t>
-  </si>
-  <si>
-    <t>何蓁媺</t>
-  </si>
-  <si>
-    <t>et57pe8</t>
-  </si>
-  <si>
-    <t>tv92j8</t>
+    <t>bjk56x3</t>
+  </si>
+  <si>
+    <t>tv15a4</t>
+  </si>
+  <si>
+    <t>陳亭蓁</t>
+  </si>
+  <si>
+    <t>花瑩珊</t>
+  </si>
+  <si>
+    <t>wh40g9</t>
+  </si>
+  <si>
+    <t>v65gw5</t>
+  </si>
+  <si>
+    <t>沙鹿區鹿峰國小</t>
+  </si>
+  <si>
+    <t>楊淳涵</t>
+  </si>
+  <si>
+    <t>吳予鈞</t>
+  </si>
+  <si>
+    <t>劉景銘</t>
+  </si>
+  <si>
+    <t>pe2nc1</t>
+  </si>
+  <si>
+    <t>p41c3</t>
   </si>
   <si>
     <t>東區進德國小</t>
   </si>
   <si>
-    <t>高淳鈴</t>
-  </si>
-  <si>
-    <t>林敬涵</t>
-  </si>
-  <si>
-    <t>dxb84c4</t>
-  </si>
-  <si>
-    <t>hp64an5</t>
+    <t>林瑀潔</t>
+  </si>
+  <si>
+    <t>黃令容</t>
+  </si>
+  <si>
+    <t>王添進</t>
+  </si>
+  <si>
+    <t>et68k7</t>
+  </si>
+  <si>
+    <t>dx50rs3</t>
+  </si>
+  <si>
+    <t>東區樂業國小</t>
+  </si>
+  <si>
+    <t>蔡瑜姮</t>
+  </si>
+  <si>
+    <t>劉雅芳</t>
+  </si>
+  <si>
+    <t>v81k9</t>
+  </si>
+  <si>
+    <t>xbj8et6</t>
   </si>
   <si>
     <t>烏日區喀哩國小</t>
   </si>
   <si>
-    <t>林冠吟</t>
+    <t>黃映雪</t>
+  </si>
+  <si>
+    <t>陳叙榕</t>
   </si>
   <si>
     <t>張美娟</t>
   </si>
   <si>
-    <t>j8w1</t>
-  </si>
-  <si>
-    <t>gw80s2</t>
-  </si>
-  <si>
-    <t>施至隆</t>
-  </si>
-  <si>
-    <t>r76d2</t>
-  </si>
-  <si>
-    <t>tv24wh6</t>
+    <t>g38n8</t>
+  </si>
+  <si>
+    <t>bjk40p2</t>
+  </si>
+  <si>
+    <t>陳首爾</t>
+  </si>
+  <si>
+    <t>ncd64yg1</t>
+  </si>
+  <si>
+    <t>p33bj5</t>
   </si>
   <si>
     <t>清水區三田國小</t>
   </si>
   <si>
-    <t>李沛蓁</t>
-  </si>
-  <si>
     <t>朱峰群</t>
   </si>
   <si>
+    <t>陳昀妡</t>
+  </si>
+  <si>
     <t>鄭博旗</t>
   </si>
   <si>
-    <t>an7et7</t>
-  </si>
-  <si>
-    <t>bj72hp9</t>
-  </si>
-  <si>
-    <t>王妤安</t>
-  </si>
-  <si>
-    <t>吳珈瑜</t>
-  </si>
-  <si>
-    <t>n90n9</t>
-  </si>
-  <si>
-    <t>pe84j1</t>
-  </si>
-  <si>
-    <t>清水區建國國小</t>
-  </si>
-  <si>
-    <t>蔡幸洳</t>
-  </si>
-  <si>
-    <t>雷婕</t>
-  </si>
-  <si>
-    <t>楊舜仁</t>
-  </si>
-  <si>
-    <t>pe62yg2</t>
-  </si>
-  <si>
-    <t>k14x1</t>
-  </si>
-  <si>
-    <t>龍井區龍井國小</t>
-  </si>
-  <si>
-    <t>張庭瑀</t>
-  </si>
-  <si>
-    <t>郭佩容</t>
-  </si>
-  <si>
-    <t>趙子如</t>
-  </si>
-  <si>
-    <t>tv55r8</t>
-  </si>
-  <si>
-    <t>e33yg8</t>
+    <t>rs20dx3</t>
+  </si>
+  <si>
+    <t>whp79h4</t>
+  </si>
+  <si>
+    <t>龍井區龍山國小</t>
+  </si>
+  <si>
+    <t>蔡宜恩</t>
+  </si>
+  <si>
+    <t>王晴沂</t>
+  </si>
+  <si>
+    <t>林衍志</t>
+  </si>
+  <si>
+    <t>jk15k6</t>
+  </si>
+  <si>
+    <t>hp76v3</t>
+  </si>
+  <si>
+    <t>楊雅慈</t>
+  </si>
+  <si>
+    <t>黃易淳</t>
+  </si>
+  <si>
+    <t>jkf61w3</t>
+  </si>
+  <si>
+    <t>cdx29c3</t>
   </si>
   <si>
     <t>豐原區翁子國小</t>
   </si>
   <si>
+    <t>吳宣儀</t>
+  </si>
+  <si>
+    <t>紀亮妤</t>
+  </si>
+  <si>
+    <t>陳俊宏</t>
+  </si>
+  <si>
+    <t>smy50s5</t>
+  </si>
+  <si>
+    <t>pe87cd5</t>
+  </si>
+  <si>
     <t>彭芷榆</t>
   </si>
   <si>
-    <t>陳俊宏</t>
-  </si>
-  <si>
-    <t>et11kf5</t>
-  </si>
-  <si>
-    <t>c11nc4</t>
+    <t>楊語安</t>
+  </si>
+  <si>
+    <t>kfr41et2</t>
+  </si>
+  <si>
+    <t>rsm13my7</t>
   </si>
   <si>
     <t>霧峰區吉峰國小</t>
   </si>
   <si>
-    <t>胡哲誌</t>
-  </si>
-  <si>
-    <t>黃瑞博</t>
+    <t>賴治宇</t>
+  </si>
+  <si>
+    <t>許彧誠</t>
   </si>
   <si>
     <t>阮培洲</t>
   </si>
   <si>
-    <t>nc96c6</t>
-  </si>
-  <si>
-    <t>hpe87gw6</t>
+    <t>dx92nc5</t>
+  </si>
+  <si>
+    <t>dx54f9</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1488,11 +1533,11 @@
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1560,15 +1605,17 @@
       <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1579,22 +1626,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1605,22 +1652,22 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1631,22 +1678,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1657,22 +1704,20 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1683,22 +1728,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1709,22 +1754,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1735,20 +1780,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1759,20 +1806,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="F11" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1783,20 +1832,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="F12" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1807,22 +1858,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1836,19 +1887,19 @@
         <v>72</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>75</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1859,22 +1910,20 @@
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>80</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E15" s="8"/>
       <c r="F15" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1885,22 +1934,22 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1911,22 +1960,22 @@
         <v>8</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="G17" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1937,22 +1986,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1963,22 +2012,22 @@
         <v>8</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1989,22 +2038,22 @@
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="G20" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2015,20 +2064,22 @@
         <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="F21" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2039,20 +2090,22 @@
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="F22" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2063,20 +2116,20 @@
         <v>8</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2087,22 +2140,22 @@
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2113,22 +2166,20 @@
         <v>8</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>130</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2139,22 +2190,22 @@
         <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2165,22 +2216,22 @@
         <v>8</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2194,17 +2245,19 @@
         <v>145</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="5"/>
+        <v>151</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="F28" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2215,22 +2268,74 @@
         <v>8</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H29" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>155</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
